--- a/biology/Botanique/Embothrium_coccineum/Embothrium_coccineum.xlsx
+++ b/biology/Botanique/Embothrium_coccineum/Embothrium_coccineum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le notro (Embothrium coccineum) est une espèce de plante à fleurs de la famille des Proteaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description, habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se présente habituellement comme un petit arbuste perennifolié d'environ 4 m de hauteur dont l'écorce est gris foncé. Son bois est de couleur rosé-clair.
 Le notro donne des fleurs de couleur rouge vif (occasionnellement jaune pâle) regroupées ; la floraison survient au printemps. Son fruit est sec et appelé follicule, et contient une dizaine de graines.
@@ -544,7 +558,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est utilisé pour la fabrication de cuillères, d'ustensiles de cuisine, d'objets de décoration et d'art mais aussi cultivé comme plante ornementale en Grande-Bretagne et aux États-Unis. Dans ces pays on l'appelle chilean firebush (buisson de feu chilien).
 </t>
